--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\srish\PycharmProjects\DineVibeSentiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E15F55-BABA-4BC6-B7C1-DBAA55663613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5155B94-37CF-464E-A307-0D74174EFD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D8C3EBA0-3245-4780-BB2F-10C140B4B97D}"/>
   </bookViews>
